--- a/data/case1/20/P1_3.xlsx
+++ b/data/case1/20/P1_3.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.4290376384335417</v>
+        <v>0.46475278436945189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994803994241</v>
+        <v>-0.053651242282285239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999994684415441</v>
+        <v>-0.0089999999506940043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999852911003</v>
+        <v>-0.011999999985093268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>6.5954914806098941e-05</v>
+        <v>-0.0059999999514133151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994500401499</v>
+        <v>-0.005999999949640511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999353748521</v>
+        <v>-0.019999999939201984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999347871444</v>
+        <v>-0.002110630581223738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994357733399</v>
+        <v>-0.0059999999486377575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999994302089021</v>
+        <v>-0.0059999999482158728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999994408101429</v>
+        <v>-0.004499999949331368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.005999999429521452</v>
+        <v>-0.0059999999481101796</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994247750266</v>
+        <v>-0.005999999947788659</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999383192517</v>
+        <v>-0.011999999943311579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.002009267037007767</v>
+        <v>0.022339889787088119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0059841960545887751</v>
+        <v>-0.0059999999475603971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994198625117</v>
+        <v>-0.0059999999473037136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999993991476401</v>
+        <v>-0.0089999999450345314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.076955531463213322</v>
+        <v>-0.0089999999527554664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994811815753</v>
+        <v>-0.013800769890750075</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999994805083361</v>
+        <v>-0.0089999999521808149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994800393779</v>
+        <v>-0.0089999999521177543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.00899999946381147</v>
+        <v>-0.081839425583414283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999233329532</v>
+        <v>-0.041999999924666298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999229285656</v>
+        <v>-0.041999999924217768</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994481181318</v>
+        <v>-0.0059999999494593226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994452097916</v>
+        <v>-0.0059999999491204825</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999432487968</v>
+        <v>-0.0059999999479884991</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999383986548</v>
+        <v>-0.011999999942728934</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999326165252</v>
+        <v>-0.019999999936416657</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999354213145</v>
+        <v>-0.014999999939501407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999312912188</v>
+        <v>-0.020999999934965707</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994136124002</v>
+        <v>-0.0059999999459776632</v>
       </c>
     </row>
   </sheetData>
